--- a/RCode/MainlyImpactData/ConvertImpact_Taxonomy.xlsx
+++ b/RCode/MainlyImpactData/ConvertImpact_Taxonomy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="136">
   <si>
     <t xml:space="preserve">src_orgtype</t>
   </si>
@@ -329,6 +329,105 @@
   </si>
   <si>
     <t xml:space="preserve">imptypaidallifrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO-Field Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_injured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_affected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_displaced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_assisted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_localstaff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_volunteers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_expats_delegates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_potentially_affected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_highest_risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov_num_injured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov_num_dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov_num_missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov_num_affected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov_num_displaced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov_num_assisted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health_min_num_assisted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov_num_potentially_affected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov_num_highest_risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_num_injured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_num_dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_num_missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_num_affected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_num_displaced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_num_assisted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_num_potentially_affected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_num_highest_risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dref_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appeal_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imminent_dref_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forecast_based_action_amount</t>
   </si>
 </sst>
 </file>
@@ -565,10 +664,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1536,6 +1635,454 @@
         <v>102</v>
       </c>
     </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/RCode/MainlyImpactData/ConvertImpact_Taxonomy.xlsx
+++ b/RCode/MainlyImpactData/ConvertImpact_Taxonomy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="128">
   <si>
     <t xml:space="preserve">src_orgtype</t>
   </si>
@@ -349,22 +349,13 @@
     <t xml:space="preserve">num_displaced</t>
   </si>
   <si>
+    <t xml:space="preserve">imptypedisp</t>
+  </si>
+  <si>
     <t xml:space="preserve">num_assisted</t>
   </si>
   <si>
-    <t xml:space="preserve">num_localstaff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_volunteers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_expats_delegates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_potentially_affected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_highest_risk</t>
+    <t xml:space="preserve">imptypeassist</t>
   </si>
   <si>
     <t xml:space="preserve">gov_num_injured</t>
@@ -385,15 +376,6 @@
     <t xml:space="preserve">gov_num_assisted</t>
   </si>
   <si>
-    <t xml:space="preserve">health_min_num_assisted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gov_num_potentially_affected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gov_num_highest_risk</t>
-  </si>
-  <si>
     <t xml:space="preserve">other_num_injured</t>
   </si>
   <si>
@@ -410,12 +392,6 @@
   </si>
   <si>
     <t xml:space="preserve">other_num_assisted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_num_potentially_affected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_num_highest_risk</t>
   </si>
   <si>
     <t xml:space="preserve">dref_amount</t>
@@ -437,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -478,11 +454,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -546,55 +517,59 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -660,1433 +635,1563 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66:B66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="E20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="E21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="E22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="A31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="A32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="7" t="s">
         <v>69</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="A33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="7" t="s">
         <v>69</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="A34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="A35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="E35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="0" t="s">
+      <c r="A36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="E36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="0" t="s">
+      <c r="A37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="0" t="s">
+      <c r="A38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="0" t="s">
+      <c r="E38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="0" t="s">
+    <row r="45" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="0" t="s">
+      <c r="D45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="0" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="D52" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="D53" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="D54" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/RCode/MainlyImpactData/ConvertImpact_Taxonomy.xlsx
+++ b/RCode/MainlyImpactData/ConvertImpact_Taxonomy.xlsx
@@ -307,7 +307,7 @@
     <t xml:space="preserve">IFRC</t>
   </si>
   <si>
-    <t xml:space="preserve">GO-Appeal</t>
+    <t xml:space="preserve">GO-App</t>
   </si>
   <si>
     <t xml:space="preserve">num_beneficiaries</t>
@@ -331,7 +331,7 @@
     <t xml:space="preserve">imptypaidallifrc</t>
   </si>
   <si>
-    <t xml:space="preserve">GO-Field Reports</t>
+    <t xml:space="preserve">GO-FR</t>
   </si>
   <si>
     <t xml:space="preserve">num_injured</t>
@@ -564,12 +564,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -635,24 +635,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,7 +1559,7 @@
       <c r="B32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1588,7 +1588,7 @@
       <c r="B33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2191,7 +2191,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/RCode/MainlyImpactData/ConvertImpact_Taxonomy.xlsx
+++ b/RCode/MainlyImpactData/ConvertImpact_Taxonomy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="134">
   <si>
     <t xml:space="preserve">src_orgtype</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">imptype</t>
   </si>
   <si>
+    <t xml:space="preserve">impmethod</t>
+  </si>
+  <si>
     <t xml:space="preserve">orgtypeun</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t xml:space="preserve">imptypdeat</t>
   </si>
   <si>
+    <t xml:space="preserve">impobsest</t>
+  </si>
+  <si>
     <t xml:space="preserve">injured</t>
   </si>
   <si>
@@ -404,6 +410,18 @@
   </si>
   <si>
     <t xml:space="preserve">forecast_based_action_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orgtyperio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDACS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdacs_alertscore</t>
   </si>
 </sst>
 </file>
@@ -639,10 +657,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E56" activeCellId="0" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -683,1509 +701,1700 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>48</v>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="I33" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/RCode/MainlyImpactData/ConvertImpact_Taxonomy.xlsx
+++ b/RCode/MainlyImpactData/ConvertImpact_Taxonomy.xlsx
@@ -43,13 +43,13 @@
     <t xml:space="preserve">impactdetails</t>
   </si>
   <si>
-    <t xml:space="preserve">measunits</t>
+    <t xml:space="preserve">imp_units</t>
   </si>
   <si>
     <t xml:space="preserve">imptype</t>
   </si>
   <si>
-    <t xml:space="preserve">impmethod</t>
+    <t xml:space="preserve">est_type</t>
   </si>
   <si>
     <t xml:space="preserve">orgtypeun</t>
@@ -659,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E56" activeCellId="0" sqref="E56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
